--- a/Doc/1.SA/現行/業務フロー/現行業務フロー（月次）.xlsx
+++ b/Doc/1.SA/現行/業務フロー/現行業務フロー（月次）.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\zaimu\Doc\1.SA\業務フロー\現行\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\zaimu\Doc\1.SA\現行\業務フロー\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="11085" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="11085" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="月次" sheetId="3" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">月次!$A$1:$I$117</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>他システム</t>
     <rPh sb="0" eb="1">
@@ -52,19 +55,6 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>セイゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>■随時処理（施行）</t>
-    <rPh sb="1" eb="3">
-      <t>ズイジ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -188,12 +178,32 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>■月次処理</t>
+    <rPh sb="1" eb="3">
+      <t>ゲツジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>凡例：</t>
+    <rPh sb="0" eb="2">
+      <t>ハンレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※精算までは。総務部も同様の業務を行う。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -205,6 +215,13 @@
       <sz val="6"/>
       <name val="Meiryo UI"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -228,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -367,13 +384,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -428,6 +456,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -451,14 +485,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>974911</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>156874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2007286</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>125373</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>125371</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -550,13 +584,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1355909</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>11756</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2435909</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>78992</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -649,13 +683,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2007286</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>45375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1355909</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>51477</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -703,14 +737,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2012575</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>40335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3368487</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>44826</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -779,14 +813,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1453405</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>61073</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>164331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2434480</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>13447</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>116705</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -795,8 +829,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10048317" y="778249"/>
-          <a:ext cx="981075" cy="669550"/>
+          <a:off x="17668317" y="1453007"/>
+          <a:ext cx="981075" cy="669551"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -878,14 +912,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1423148</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2455523</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>91763</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>91762</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -957,13 +991,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1355915</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>156887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2435915</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>44827</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1056,13 +1090,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2455523</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>17867</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>17866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1355915</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>11210</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1075,7 +1109,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14905258" y="2203014"/>
+          <a:off x="18670435" y="2920190"/>
           <a:ext cx="2811245" cy="531226"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -1112,14 +1146,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1423147</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>156885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2455522</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>125386</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>125384</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1191,14 +1225,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>67240</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>134474</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1423152</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>33622</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>33620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1253,14 +1287,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1939336</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>148477</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>72440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1943943</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>173904</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>173903</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1272,8 +1306,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14389071" y="1437153"/>
-          <a:ext cx="4607" cy="563309"/>
+          <a:off x="18154248" y="2078293"/>
+          <a:ext cx="4607" cy="639345"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1306,14 +1340,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1445558</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>33622</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>22410</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2426633</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>165288</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>154077</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1322,7 +1356,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13895293" y="4011710"/>
+          <a:off x="17660470" y="4896969"/>
           <a:ext cx="981075" cy="669549"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
@@ -1374,7 +1408,7 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>各種清算書</a:t>
+            <a:t>各種精算書</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1385,13 +1419,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1351433</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>174814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2431433</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>62755</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1487,13 +1521,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2455522</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>29138</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1351433</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>51489</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1541,13 +1575,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1936096</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>121023</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>109812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1939335</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>173903</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1560,8 +1594,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18151008" y="4636994"/>
-          <a:ext cx="3239" cy="590762"/>
+          <a:off x="18151008" y="5522253"/>
+          <a:ext cx="3239" cy="1139856"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1594,13 +1628,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1445560</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>11208</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2426635</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>142877</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1693,14 +1727,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1355912</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>11210</xdr:rowOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24819</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2435912</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>78447</xdr:rowOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>92055</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1709,8 +1743,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21481677" y="12416122"/>
-          <a:ext cx="1080000" cy="1143001"/>
+          <a:off x="21494483" y="13332605"/>
+          <a:ext cx="1080000" cy="1128593"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -1792,14 +1826,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1456765</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>67239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2489140</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1901,14 +1935,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2489140</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>44829</xdr:rowOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>58438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1355912</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>89649</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1920,8 +1954,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="18704052" y="12987623"/>
-          <a:ext cx="2777625" cy="761996"/>
+          <a:off x="18722461" y="13896902"/>
+          <a:ext cx="2772022" cy="915676"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2056,14 +2090,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1295401</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>6723</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>129188</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2327776</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>154517</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>100088</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2072,8 +2106,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2359960" y="2012576"/>
-          <a:ext cx="1032375" cy="506382"/>
+          <a:off x="2356758" y="3177188"/>
+          <a:ext cx="1032375" cy="501579"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -2135,14 +2169,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1344706</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>11207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2424706</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>78440</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2151,8 +2185,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10029265" y="1658470"/>
-          <a:ext cx="1080000" cy="1143000"/>
+          <a:off x="10039670" y="2174743"/>
+          <a:ext cx="1080000" cy="1128592"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -2233,68 +2267,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1804865</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1811589</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>57361</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直線矢印コネクタ 51"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="49" idx="2"/>
-          <a:endCxn id="50" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2869424" y="1479176"/>
-          <a:ext cx="6724" cy="584038"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>2327776</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>44825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1344706</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>80620</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26192</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2306,11 +2287,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3392335" y="2229970"/>
-          <a:ext cx="6636930" cy="35797"/>
+          <a:off x="3389133" y="2739039"/>
+          <a:ext cx="6650537" cy="688939"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="25400">
           <a:solidFill>
@@ -2341,14 +2324,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1322294</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>11207</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>68034</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2303369</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142873</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>22808</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2357,8 +2340,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2386853" y="3092825"/>
-          <a:ext cx="981075" cy="669548"/>
+          <a:off x="2383651" y="4354284"/>
+          <a:ext cx="981075" cy="662345"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -2419,31 +2402,33 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1811589</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>154517</xdr:rowOff>
+      <xdr:colOff>1288676</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>39220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1812832</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>11207</xdr:rowOff>
+      <xdr:colOff>1322293</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>45421</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="62" name="直線矢印コネクタ 61"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="50" idx="2"/>
-          <a:endCxn id="58" idx="0"/>
+          <a:stCxn id="49" idx="1"/>
+          <a:endCxn id="58" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2876148" y="2518958"/>
-          <a:ext cx="1243" cy="573867"/>
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="2350033" y="1318291"/>
+          <a:ext cx="33617" cy="3367166"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2218140"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="25400">
           <a:solidFill>
@@ -2473,14 +2458,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1423147</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>156884</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>118463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2455522</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>125382</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>86960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2489,8 +2474,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13872882" y="2879913"/>
-          <a:ext cx="1032375" cy="506380"/>
+          <a:off x="17638059" y="3737963"/>
+          <a:ext cx="1032375" cy="506379"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -2552,14 +2537,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2455522</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>11211</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>11210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1355915</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>51486</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>13065</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2571,8 +2556,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="14905257" y="2734240"/>
-          <a:ext cx="2811246" cy="398863"/>
+          <a:off x="18670434" y="3451416"/>
+          <a:ext cx="2811246" cy="539737"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2608,14 +2593,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1939335</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>91763</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>91762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1939336</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>28227</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>169101</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2627,8 +2612,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14389070" y="2456204"/>
-          <a:ext cx="1" cy="474347"/>
+          <a:off x="18154247" y="3173380"/>
+          <a:ext cx="1" cy="615221"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2661,14 +2646,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1936096</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>125381</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>86960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1939335</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>33622</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>22410</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2680,8 +2665,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14385831" y="3386293"/>
-          <a:ext cx="3239" cy="625417"/>
+          <a:off x="18151008" y="4244342"/>
+          <a:ext cx="3239" cy="652627"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2714,14 +2699,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1423147</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2455522</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>91763</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>91761</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2782,7 +2767,7 @@
               <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>原価償却計算</a:t>
+            <a:t>減価償却計算</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2793,13 +2778,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1355911</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2435911</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2892,13 +2877,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2455522</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>11207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1355911</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>17867</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2946,14 +2931,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1075764</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>100855</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>128067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2108139</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>69352</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>96564</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2962,8 +2947,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13525499" y="3899649"/>
-          <a:ext cx="1032375" cy="506380"/>
+          <a:off x="13539907" y="5475674"/>
+          <a:ext cx="1032375" cy="499176"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -3025,14 +3010,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1344706</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>145675</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>172888</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2424706</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>33616</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>60829</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3041,8 +3026,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10029265" y="3585881"/>
-          <a:ext cx="1080000" cy="1143000"/>
+          <a:off x="10039670" y="5166709"/>
+          <a:ext cx="1080000" cy="1126191"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -3124,14 +3109,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2424706</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>174751</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>23869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1075764</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>179293</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28412</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3143,8 +3128,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11109265" y="4152839"/>
-          <a:ext cx="2416234" cy="4542"/>
+          <a:off x="11119670" y="5725262"/>
+          <a:ext cx="2420237" cy="4543"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3178,14 +3163,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1423146</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2455521</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>114174</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>114172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3257,13 +3242,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1355910</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2435910</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3356,14 +3341,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1939334</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>91763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1939335</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>17020</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>17022</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3409,13 +3394,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2455521</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>33620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1355910</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>40278</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3463,14 +3448,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1939334</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>114174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1939335</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>28229</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>28230</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3516,14 +3501,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1884707</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>33615</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>60828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1939336</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>28228</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>29909</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3535,12 +3520,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="12661156" y="2636990"/>
-          <a:ext cx="3401201" cy="7584982"/>
+          <a:off x="12799587" y="4072983"/>
+          <a:ext cx="3153153" cy="7592986"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 78005"/>
+            <a:gd name="adj1" fmla="val 80208"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="25400">
@@ -3572,13 +3557,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2435909</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>45375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1423147</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>51489</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3626,14 +3611,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1346949</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>35865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2426949</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>103101</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>103100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3728,13 +3713,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1411940</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>168087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2444315</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>136588</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3807,14 +3792,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1895910</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>78992</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1411941</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>62691</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>62690</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3861,13 +3846,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2444315</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>62691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1346949</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>69483</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3915,14 +3900,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1928128</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>125386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1939335</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>39431</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>39432</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3968,13 +3953,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1928128</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>136588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1936098</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>11208</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4021,14 +4006,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1362634</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>174820</xdr:rowOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>11533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2442634</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>62763</xdr:rowOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>76368</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4037,8 +4022,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21488399" y="13834791"/>
-          <a:ext cx="1080000" cy="1143001"/>
+          <a:off x="21501205" y="15088247"/>
+          <a:ext cx="1080000" cy="1126192"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -4120,14 +4105,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2489140</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>89649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1362634</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>29145</xdr:rowOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>43950</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4139,8 +4124,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18704052" y="13749619"/>
-          <a:ext cx="2784347" cy="656673"/>
+          <a:off x="18722461" y="14812578"/>
+          <a:ext cx="2778744" cy="838765"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4176,13 +4161,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1355909</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>34176</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2435909</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>101412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4255,13 +4240,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1452281</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>174817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2484656</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>143316</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4334,13 +4319,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2435909</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>67795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1452281</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>69420</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4355,6 +4340,944 @@
         <a:xfrm flipH="1" flipV="1">
           <a:off x="11120468" y="16417177"/>
           <a:ext cx="6546725" cy="1625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1344706</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2424706</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="フローチャート: 磁気ディスク 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10029265" y="762000"/>
+          <a:ext cx="1080000" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>受注方報告</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>システム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2321052</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>39220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1344706</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直線矢印コネクタ 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="3"/>
+          <a:endCxn id="65" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3382409" y="1318291"/>
+          <a:ext cx="6657261" cy="5604"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1334301</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12003</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2414301</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>79238</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="フローチャート: 磁気ディスク 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10029265" y="3590682"/>
+          <a:ext cx="1080000" cy="1128592"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>受注計画</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>システム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2327776</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1334301</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>45621</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直線矢印コネクタ 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="3"/>
+          <a:endCxn id="73" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3389133" y="3427978"/>
+          <a:ext cx="6640132" cy="727000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>530679</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1295401</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26192</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線矢印コネクタ 61"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1592036" y="3415393"/>
+          <a:ext cx="764722" cy="12585"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504264</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1733549</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>79001</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="79" name="グループ化 78"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="681157" y="20188997"/>
+          <a:ext cx="2113749" cy="464004"/>
+          <a:chOff x="1143000" y="4162425"/>
+          <a:chExt cx="2114550" cy="476250"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="80" name="直線矢印コネクタ 79"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1143000" y="4295775"/>
+            <a:ext cx="790575" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="82" name="直線矢印コネクタ 81"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1152525" y="4495800"/>
+            <a:ext cx="771525" cy="15067"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:prstDash val="sysDash"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="83" name="正方形/長方形 82"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2028825" y="4162425"/>
+            <a:ext cx="1219200" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>処理の流れ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="87" name="正方形/長方形 86"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2038350" y="4371975"/>
+            <a:ext cx="1219200" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+                <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              </a:rPr>
+              <a:t>データの流れ</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1438356</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2470731</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>78440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="フローチャート: 手操作入力 89"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17671677" y="15641012"/>
+          <a:ext cx="1032375" cy="752392"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・給与振込</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・住民税設定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2470731</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1378323</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="直線矢印コネクタ 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="90" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18685643" y="16226118"/>
+          <a:ext cx="2818445" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1434353</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>11208</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2466728</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="フローチャート: 手操作入力 93"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17649265" y="17077767"/>
+          <a:ext cx="1032375" cy="761997"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>支払処理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1355909</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>561</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2435909</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>67798</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="フローチャート: 磁気ディスク 96"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10040468" y="16887826"/>
+          <a:ext cx="1080000" cy="1143001"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>FB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>システム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2435909</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1434353</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>34180</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="直線矢印コネクタ 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="94" idx="1"/>
+          <a:endCxn id="97" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11120468" y="17458766"/>
+          <a:ext cx="6528797" cy="561"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4653,9 +5576,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -4672,14 +5595,14 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9"/>
       <c r="C3" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>2</v>
@@ -4688,21 +5611,21 @@
         <v>0</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="15"/>
@@ -4718,9 +5641,7 @@
       <c r="D5" s="15"/>
       <c r="E5" s="2"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="17" t="s">
-        <v>9</v>
-      </c>
+      <c r="G5" s="17"/>
       <c r="H5" s="2"/>
       <c r="I5" s="16"/>
     </row>
@@ -4730,9 +5651,13 @@
       <c r="D6" s="7"/>
       <c r="E6" s="4"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="17" t="s">
+        <v>8</v>
+      </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="12"/>
+      <c r="I6" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
@@ -4740,8 +5665,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="4"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4970,9 +5894,7 @@
       <c r="D30" s="7"/>
       <c r="E30" s="4"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="G30" s="7"/>
       <c r="H30" s="4"/>
       <c r="I30" s="12"/>
     </row>
@@ -5032,7 +5954,9 @@
       <c r="D36" s="7"/>
       <c r="E36" s="4"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
+      <c r="G36" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="H36" s="4"/>
       <c r="I36" s="12"/>
     </row>
@@ -5362,9 +6286,7 @@
       <c r="D69" s="7"/>
       <c r="E69" s="4"/>
       <c r="F69" s="7"/>
-      <c r="G69" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="G69" s="7"/>
       <c r="H69" s="4"/>
       <c r="I69" s="12"/>
     </row>
@@ -5434,7 +6356,9 @@
       <c r="D76" s="7"/>
       <c r="E76" s="4"/>
       <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
+      <c r="G76" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="H76" s="4"/>
       <c r="I76" s="12"/>
     </row>
@@ -5554,9 +6478,7 @@
       <c r="D88" s="7"/>
       <c r="E88" s="4"/>
       <c r="F88" s="7"/>
-      <c r="G88" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G88" s="7"/>
       <c r="H88" s="4"/>
       <c r="I88" s="12"/>
     </row>
@@ -5650,20 +6572,177 @@
       <c r="H97" s="4"/>
       <c r="I97" s="12"/>
     </row>
-    <row r="98" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="5"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="13"/>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="3"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="12"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="3"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="12"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="3"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="12"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="3"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="12"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="3"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="12"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="3"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="12"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="3"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H104" s="4"/>
+      <c r="I104" s="12"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="3"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="12"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="3"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="12"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="3"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="12"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="3"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="12"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="3"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="12"/>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="3"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="12"/>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="3"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="12"/>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="3"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="12"/>
+    </row>
+    <row r="113" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="5"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="13"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="48" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="44" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Doc/1.SA/現行/業務フロー/現行業務フロー（月次）.xlsx
+++ b/Doc/1.SA/現行/業務フロー/現行業務フロー（月次）.xlsx
@@ -2,20 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\zaimu\Doc\1.SA\現行\業務フロー\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="11085" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="11085" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="月次" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">月次!$A$1:$I$117</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">月次!$A$1:$I$175</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>他システム</t>
     <rPh sb="0" eb="1">
@@ -197,6 +192,48 @@
   </si>
   <si>
     <t>※精算までは。総務部も同様の業務を行う。</t>
+  </si>
+  <si>
+    <t>【月初】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【支払承認内訳システム】</t>
+    <rPh sb="1" eb="5">
+      <t>シハライショウニン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ウチワケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・月初に「精算書」が来たら承認を行い、伝票データの作成を行う。</t>
+    <rPh sb="1" eb="3">
+      <t>ゲッショ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>セイサンショ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>デンピョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -401,7 +438,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -438,19 +475,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -459,8 +487,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,13 +519,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>974911</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>156874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2007286</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>125371</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -584,13 +618,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1355909</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>11756</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2435909</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>78992</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -683,13 +717,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2007286</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>45375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1355909</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>51477</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -737,14 +771,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2012575</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>40335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3368487</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>44825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -813,14 +847,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1453405</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>164331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2434480</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>116705</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>116706</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -829,7 +863,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17668317" y="1453007"/>
+          <a:off x="17668317" y="4680302"/>
           <a:ext cx="981075" cy="669551"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
@@ -912,14 +946,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1423148</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2455523</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>91762</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>91763</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -991,13 +1025,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1355915</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>156887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2435915</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>44827</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1090,14 +1124,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2455523</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>17866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1355915</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>11210</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>11211</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1146,13 +1180,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1423147</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>156885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2455522</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>125384</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1225,13 +1259,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>67240</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>134474</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1423152</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>33620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1287,13 +1321,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1939336</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>72440</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>72441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1943943</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>173903</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1306,8 +1340,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="18154248" y="2078293"/>
-          <a:ext cx="4607" cy="639345"/>
+          <a:off x="18154248" y="5305588"/>
+          <a:ext cx="4607" cy="639344"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1340,14 +1374,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1445558</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>22410</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2426633</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>154077</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>154076</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1419,13 +1453,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1351433</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>174814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2431433</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>62755</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1500,19 +1534,6 @@
             <a:t>DB</a:t>
           </a:r>
         </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>システム</a:t>
-          </a:r>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -1521,13 +1542,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2455522</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>29138</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1351433</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>51489</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1575,13 +1596,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1936096</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>109812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1939335</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>173903</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1627,15 +1648,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1445560</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:colOff>1434354</xdr:colOff>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>11208</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2426635</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>142877</xdr:rowOff>
+      <xdr:colOff>2415429</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1644,8 +1665,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17660472" y="10802473"/>
-          <a:ext cx="981075" cy="669551"/>
+          <a:off x="17649266" y="18153532"/>
+          <a:ext cx="981075" cy="669550"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -1727,14 +1748,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1355912</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>24819</xdr:rowOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>2405</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2435912</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>92055</xdr:rowOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>69640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1743,8 +1764,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21494483" y="13332605"/>
-          <a:ext cx="1080000" cy="1128593"/>
+          <a:off x="21481677" y="23882140"/>
+          <a:ext cx="1080000" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -1805,19 +1826,6 @@
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
         </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>システム</a:t>
-          </a:r>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -1826,13 +1834,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1456765</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>67239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2489140</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>112060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1935,14 +1943,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2489140</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>58438</xdr:rowOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>36022</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1355912</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>89649</xdr:rowOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>89650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1954,8 +1962,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="18722461" y="13896902"/>
-          <a:ext cx="2772022" cy="915676"/>
+          <a:off x="18704052" y="24453640"/>
+          <a:ext cx="2777625" cy="770804"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1991,14 +1999,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1288677</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>67234</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>33596</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2321052</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
+      <xdr:rowOff>156860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2007,8 +2015,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2353236" y="818028"/>
-          <a:ext cx="1032375" cy="661148"/>
+          <a:off x="2353236" y="1142978"/>
+          <a:ext cx="1032375" cy="661147"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -2090,14 +2098,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1295401</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>129188</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2327776</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>100088</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2106,8 +2114,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2356758" y="3177188"/>
-          <a:ext cx="1032375" cy="501579"/>
+          <a:off x="2359960" y="3356462"/>
+          <a:ext cx="1032375" cy="508782"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -2170,13 +2178,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1344706</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>11207</xdr:rowOff>
+      <xdr:rowOff>156863</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2424706</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>44804</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2185,8 +2193,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10039670" y="2174743"/>
-          <a:ext cx="1080000" cy="1128592"/>
+          <a:off x="10029265" y="2342010"/>
+          <a:ext cx="1080000" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -2268,14 +2276,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2327776</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>44825</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>11186</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1344706</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>26192</xdr:rowOff>
+      <xdr:rowOff>170647</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2287,8 +2295,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3389133" y="2739039"/>
-          <a:ext cx="6650537" cy="688939"/>
+          <a:off x="3392335" y="2913510"/>
+          <a:ext cx="6636930" cy="697343"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2324,14 +2332,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1322294</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>68034</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>34396</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2303369</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>22808</xdr:rowOff>
+      <xdr:rowOff>168463</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2340,8 +2348,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2383651" y="4354284"/>
-          <a:ext cx="981075" cy="662345"/>
+          <a:off x="2386853" y="4550367"/>
+          <a:ext cx="981075" cy="671949"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -2403,14 +2411,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1288676</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>39220</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>5581</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1322293</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>45421</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>11783</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2422,12 +2430,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="2350033" y="1318291"/>
-          <a:ext cx="33617" cy="3367166"/>
+          <a:off x="2353235" y="1473552"/>
+          <a:ext cx="33617" cy="3412790"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -2218140"/>
+            <a:gd name="adj1" fmla="val -2213374"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="25400">
@@ -2458,14 +2466,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1423147</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>118463</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2455522</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>86960</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>86959</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2537,14 +2545,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2455522</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>11210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1355915</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>13065</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>13064</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2593,13 +2601,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1939335</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>91762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1939336</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>169101</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2646,14 +2654,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1936096</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>86960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1939335</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>22410</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2699,14 +2707,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1423147</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2455522</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>91761</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>91762</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2778,13 +2786,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1355911</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2435911</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2856,19 +2864,6 @@
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
         </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>システム</a:t>
-          </a:r>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -2877,13 +2872,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2455522</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>11207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1355911</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>17867</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2931,14 +2926,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1075764</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>128067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2108139</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>96564</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>96565</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3010,13 +3005,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1344706</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>172888</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2424706</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>60829</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3109,13 +3104,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2424706</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>23869</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1075764</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>28412</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3163,14 +3158,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1423146</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2455521</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>114172</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>102967</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3179,8 +3174,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17638058" y="6633882"/>
-          <a:ext cx="1032375" cy="506380"/>
+          <a:off x="17638058" y="12539382"/>
+          <a:ext cx="1032375" cy="506379"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -3242,14 +3237,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1355910</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2435910</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>67237</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3320,19 +3315,6 @@
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
         </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>システム</a:t>
-          </a:r>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -3340,28 +3322,28 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1939334</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>91763</xdr:rowOff>
+      <xdr:colOff>1939335</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>91762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1939335</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>17022</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>17027</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="92" name="直線矢印コネクタ 91"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="76" idx="2"/>
-          <a:endCxn id="88" idx="0"/>
+          <a:endCxn id="121" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="18154246" y="5683498"/>
-          <a:ext cx="1" cy="1001022"/>
+        <a:xfrm>
+          <a:off x="18154247" y="10345144"/>
+          <a:ext cx="0" cy="1001030"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3394,14 +3376,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2455521</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>33620</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>29072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1355910</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>40278</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>33620</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3412,9 +3394,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="18670433" y="6880414"/>
-          <a:ext cx="2811242" cy="6658"/>
+        <a:xfrm>
+          <a:off x="18670433" y="12792572"/>
+          <a:ext cx="2811242" cy="4548"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3448,14 +3430,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1939334</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>114174</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>102967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1939335</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>28230</xdr:rowOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>28229</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3467,8 +3449,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18154246" y="7140262"/>
-          <a:ext cx="1" cy="989820"/>
+          <a:off x="18154246" y="13045761"/>
+          <a:ext cx="1" cy="1001027"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3501,14 +3483,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1884707</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>60828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1939336</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>29909</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>29910</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3557,13 +3539,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2435909</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>45375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1423147</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>51489</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3611,14 +3593,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1346949</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>35865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2426949</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>103100</xdr:rowOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>103099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3692,19 +3674,6 @@
             <a:t>DB</a:t>
           </a:r>
         </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>システム</a:t>
-          </a:r>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -3713,14 +3682,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1411940</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>168087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2444315</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>136588</xdr:rowOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>136587</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3792,14 +3761,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1895910</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>78992</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1411941</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>62690</xdr:rowOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>62691</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3846,13 +3815,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2444315</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>62691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1346949</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>69483</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3900,13 +3869,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1928128</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>125386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1939335</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>39432</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3953,27 +3922,27 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1928128</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>136588</xdr:rowOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>136587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1936098</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>11208</xdr:rowOff>
+      <xdr:colOff>1928129</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>25977</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="119" name="直線矢印コネクタ 118"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="110" idx="2"/>
-          <a:endCxn id="86" idx="0"/>
+          <a:endCxn id="135" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18143040" y="10031382"/>
-          <a:ext cx="7970" cy="771091"/>
+          <a:off x="18143040" y="16127381"/>
+          <a:ext cx="1" cy="965155"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4006,14 +3975,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1362634</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>11533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2442634</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>76368</xdr:rowOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>76367</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4084,19 +4053,6 @@
             <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
           </a:endParaRPr>
         </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>システム</a:t>
-          </a:r>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -4105,14 +4061,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2489140</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>89649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1362634</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>43950</xdr:rowOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>43949</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4161,14 +4117,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1355909</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>34176</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2435909</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>101412</xdr:rowOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>101413</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4240,14 +4196,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1452281</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>163</xdr:row>
       <xdr:rowOff>174817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2484656</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>143316</xdr:rowOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>143317</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4319,13 +4275,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2435909</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>67795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1452281</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>69420</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4374,13 +4330,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1344706</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:rowOff>156862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2424706</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>44803</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4389,7 +4345,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10029265" y="762000"/>
+          <a:off x="10029265" y="907656"/>
           <a:ext cx="1080000" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -4472,14 +4428,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2321052</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>39220</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>5581</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1344706</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>11185</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4491,8 +4447,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3382409" y="1318291"/>
-          <a:ext cx="6657261" cy="5604"/>
+          <a:off x="3385611" y="1473552"/>
+          <a:ext cx="6643654" cy="5604"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4527,13 +4483,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1334301</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>12003</xdr:rowOff>
+      <xdr:rowOff>157659</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2414301</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>79238</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>45600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4542,8 +4498,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10029265" y="3590682"/>
-          <a:ext cx="1080000" cy="1128592"/>
+          <a:off x="10018860" y="3777159"/>
+          <a:ext cx="1080000" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -4626,13 +4582,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>2327776</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>26192</xdr:rowOff>
+      <xdr:rowOff>170647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1334301</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>45621</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>11983</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4644,8 +4600,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3389133" y="3427978"/>
-          <a:ext cx="6640132" cy="727000"/>
+          <a:off x="3392335" y="3610853"/>
+          <a:ext cx="6626525" cy="737806"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4682,13 +4638,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>530679</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:rowOff>159263</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1295401</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>26192</xdr:rowOff>
+      <xdr:rowOff>171848</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4699,7 +4655,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="1592036" y="3415393"/>
+          <a:off x="1595238" y="3599469"/>
           <a:ext cx="764722" cy="12585"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4733,13 +4689,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>504264</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1733549</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>79001</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4749,8 +4705,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="681157" y="20188997"/>
-          <a:ext cx="2113749" cy="464004"/>
+          <a:off x="683558" y="30849794"/>
+          <a:ext cx="2114550" cy="471207"/>
           <a:chOff x="1143000" y="4162425"/>
           <a:chExt cx="2114550" cy="476250"/>
         </a:xfrm>
@@ -4937,13 +4893,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1438356</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>33619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2470731</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>78440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5036,13 +4992,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2470731</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1378323</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5089,14 +5045,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1434353</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>11208</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2466728</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>56028</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5168,13 +5124,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1355909</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>561</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2435909</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>67798</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5257,13 +5213,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2435909</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>33619</xdr:rowOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1434353</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>155</xdr:row>
       <xdr:rowOff>34180</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5276,8 +5232,1840 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11120468" y="17458766"/>
-          <a:ext cx="6528797" cy="561"/>
+          <a:off x="11120468" y="27857824"/>
+          <a:ext cx="6528797" cy="562"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1445559</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>22404</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2426634</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>154072</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="フローチャート: 書類 102"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17660471" y="1131786"/>
+          <a:ext cx="981075" cy="669551"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>・精算書</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1423147</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2455522</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>170198</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="フローチャート: 手操作入力 103"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17638059" y="2207552"/>
+          <a:ext cx="1032375" cy="506381"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>月末締精算書</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1367120</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>56024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2447120</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123257</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="フローチャート: 磁気ディスク 104"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21492885" y="1882583"/>
+          <a:ext cx="1080000" cy="1142998"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>支払承認</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>内訳システム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2455522</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>89641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1367120</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>96302</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="直線矢印コネクタ 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="104" idx="3"/>
+          <a:endCxn id="105" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18670434" y="2454082"/>
+          <a:ext cx="2822451" cy="6661"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1936097</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>109807</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1939335</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>73043</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="直線矢印コネクタ 108"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="103" idx="2"/>
+          <a:endCxn id="104" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18151009" y="1757072"/>
+          <a:ext cx="3238" cy="501118"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1423147</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>145683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2455522</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114180</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="フローチャート: 手操作入力 120"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17638059" y="11295536"/>
+          <a:ext cx="1032375" cy="506379"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>設備閲覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1355911</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>7</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2435911</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>67241</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="フローチャート: 磁気ディスク 122"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21481676" y="10970566"/>
+          <a:ext cx="1080000" cy="1142999"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>設備閲覧</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>システム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2455522</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>33625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1355911</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>40285</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="直線矢印コネクタ 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="121" idx="3"/>
+          <a:endCxn id="123" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18670434" y="11542066"/>
+          <a:ext cx="2811242" cy="6660"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2465295</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>134472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>358587</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="テキスト ボックス 125"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18680207" y="11284325"/>
+          <a:ext cx="1804145" cy="235322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>償却資産・減価償却費閲覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1939334</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1939335</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>5814</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="直線矢印コネクタ 126"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="121" idx="2"/>
+          <a:endCxn id="88" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="18154246" y="11801915"/>
+          <a:ext cx="1" cy="967399"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1346950</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2426950</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>89645</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="フローチャート: 磁気ディスク 133"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21472715" y="16730382"/>
+          <a:ext cx="1080000" cy="1142998"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>業績予測</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>システム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1411941</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>154633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2444316</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>123133</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="フローチャート: 手操作入力 134"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17626853" y="17041898"/>
+          <a:ext cx="1032375" cy="506382"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>業績予測</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2444316</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>49237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1346950</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="直線矢印コネクタ 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="135" idx="3"/>
+          <a:endCxn id="134" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18659228" y="17295090"/>
+          <a:ext cx="2813487" cy="6792"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1924892</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>123133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1928129</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>11208</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="137" name="直線矢印コネクタ 136"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="135" idx="2"/>
+          <a:endCxn id="86" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="18139804" y="17548280"/>
+          <a:ext cx="3237" cy="605252"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1346950</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2426950</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>67233</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="フローチャート: 磁気ディスク 137"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21472715" y="19554265"/>
+          <a:ext cx="1080000" cy="1142998"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>経理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>DB</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1411941</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2444316</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>179163</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="フローチャート: 手操作入力 138"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17626853" y="19767176"/>
+          <a:ext cx="1032375" cy="705841"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>給与振込口座管理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2444316</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>5538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1346950</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="直線矢印コネクタ 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="139" idx="3"/>
+          <a:endCxn id="138" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18659228" y="20120097"/>
+          <a:ext cx="2813487" cy="5667"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1358156</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>11208</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2438156</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="フローチャート: 磁気ディスク 140"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21483921" y="20484355"/>
+          <a:ext cx="1080000" cy="1142998"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>施行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>DB</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1423147</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2455522</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>11077</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="フローチャート: 手操作入力 141"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17638059" y="20674854"/>
+          <a:ext cx="1032375" cy="705841"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>データ更新</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2455522</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>16746</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1358156</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>44825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="143" name="直線矢印コネクタ 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="141" idx="2"/>
+          <a:endCxn id="142" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="18670434" y="21027775"/>
+          <a:ext cx="2813487" cy="28079"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1355912</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>145673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2435912</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>33615</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="フローチャート: 磁気ディスク 144"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10040471" y="20439526"/>
+          <a:ext cx="1080000" cy="1143001"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>施行情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>システム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2435912</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>179292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1423147</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>16746</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="146" name="直線矢印コネクタ 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="142" idx="1"/>
+          <a:endCxn id="145" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11120471" y="21011027"/>
+          <a:ext cx="6517588" cy="16748"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1367118</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2447118</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="フローチャート: 磁気ディスク 147"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21492883" y="22568646"/>
+          <a:ext cx="1080000" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>立替払</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>システム</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1467971</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>156876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2500346</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>22401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="フローチャート: 手操作入力 149"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17682883" y="22781552"/>
+          <a:ext cx="1032375" cy="761996"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>支払処理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2500346</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>156881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1367118</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>179285</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="151" name="直線矢印コネクタ 66"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="150" idx="3"/>
+          <a:endCxn id="148" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18715258" y="23140146"/>
+          <a:ext cx="2777625" cy="22404"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5576,9 +7364,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I173"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -5619,7 +7407,7 @@
       <c r="H3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5628,205 +7416,210 @@
         <v>6</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="15"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="2"/>
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="15"/>
+      <c r="C5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="13"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="17"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="17" t="s">
-        <v>8</v>
+      <c r="D6" s="13"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="16" t="s">
+        <v>16</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="7"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="13"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="13"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="13"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="13"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="13"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="13"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="13"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="13"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="13"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="13"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="13"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="13"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="13"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="13"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="13"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="12"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="13"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
@@ -5834,9 +7627,11 @@
       <c r="D24" s="7"/>
       <c r="E24" s="4"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="G24" s="14"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="12"/>
+      <c r="I24" s="17" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
@@ -5844,9 +7639,11 @@
       <c r="D25" s="7"/>
       <c r="E25" s="4"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="12"/>
+      <c r="G25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
@@ -5856,7 +7653,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="12"/>
+      <c r="I26" s="16"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
@@ -5866,7 +7663,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="12"/>
+      <c r="I27" s="16"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
@@ -5876,7 +7673,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="12"/>
+      <c r="I28" s="16"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
@@ -5886,7 +7683,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="12"/>
+      <c r="I29" s="16"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
@@ -5896,7 +7693,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="12"/>
+      <c r="I30" s="16"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
@@ -5906,7 +7703,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="12"/>
+      <c r="I31" s="16"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
@@ -5916,7 +7713,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="12"/>
+      <c r="I32" s="16"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
@@ -5926,7 +7723,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="12"/>
+      <c r="I33" s="16"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
@@ -5936,7 +7733,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="12"/>
+      <c r="I34" s="16"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
@@ -5946,7 +7743,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="12"/>
+      <c r="I35" s="16"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
@@ -5954,11 +7751,9 @@
       <c r="D36" s="7"/>
       <c r="E36" s="4"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="G36" s="7"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="12"/>
+      <c r="I36" s="16"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
@@ -5968,7 +7763,7 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="12"/>
+      <c r="I37" s="16"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
@@ -5978,7 +7773,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="12"/>
+      <c r="I38" s="16"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
@@ -5988,7 +7783,7 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="12"/>
+      <c r="I39" s="16"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
@@ -5998,7 +7793,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="12"/>
+      <c r="I40" s="16"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
@@ -6008,7 +7803,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="4"/>
-      <c r="I41" s="12"/>
+      <c r="I41" s="16"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
@@ -6018,7 +7813,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="4"/>
-      <c r="I42" s="12"/>
+      <c r="I42" s="16"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
@@ -6028,7 +7823,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="4"/>
-      <c r="I43" s="12"/>
+      <c r="I43" s="16"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
@@ -6038,7 +7833,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="12"/>
+      <c r="I44" s="16"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
@@ -6048,7 +7843,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="12"/>
+      <c r="I45" s="16"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
@@ -6058,7 +7853,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="12"/>
+      <c r="I46" s="16"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
@@ -6068,7 +7863,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="4"/>
-      <c r="I47" s="12"/>
+      <c r="I47" s="16"/>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
@@ -6078,7 +7873,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="4"/>
-      <c r="I48" s="12"/>
+      <c r="I48" s="16"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
@@ -6088,7 +7883,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="4"/>
-      <c r="I49" s="12"/>
+      <c r="I49" s="16"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
@@ -6098,7 +7893,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="12"/>
+      <c r="I50" s="16"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
@@ -6108,7 +7903,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="4"/>
-      <c r="I51" s="12"/>
+      <c r="I51" s="16"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
@@ -6118,7 +7913,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="12"/>
+      <c r="I52" s="16"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
@@ -6128,7 +7923,7 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="4"/>
-      <c r="I53" s="12"/>
+      <c r="I53" s="16"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
@@ -6136,9 +7931,11 @@
       <c r="D54" s="7"/>
       <c r="E54" s="4"/>
       <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
+      <c r="G54" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="H54" s="4"/>
-      <c r="I54" s="12"/>
+      <c r="I54" s="16"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
@@ -6148,7 +7945,7 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="4"/>
-      <c r="I55" s="12"/>
+      <c r="I55" s="16"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
@@ -6158,7 +7955,7 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="4"/>
-      <c r="I56" s="12"/>
+      <c r="I56" s="16"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
@@ -6168,7 +7965,7 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="4"/>
-      <c r="I57" s="12"/>
+      <c r="I57" s="16"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
@@ -6178,7 +7975,7 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="4"/>
-      <c r="I58" s="12"/>
+      <c r="I58" s="16"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
@@ -6188,7 +7985,7 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="4"/>
-      <c r="I59" s="12"/>
+      <c r="I59" s="16"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
@@ -6198,7 +7995,7 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="4"/>
-      <c r="I60" s="12"/>
+      <c r="I60" s="16"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
@@ -6208,7 +8005,7 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="4"/>
-      <c r="I61" s="12"/>
+      <c r="I61" s="16"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
@@ -6218,7 +8015,7 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="4"/>
-      <c r="I62" s="12"/>
+      <c r="I62" s="16"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
@@ -6228,7 +8025,7 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="4"/>
-      <c r="I63" s="12"/>
+      <c r="I63" s="16"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
@@ -6238,7 +8035,7 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="4"/>
-      <c r="I64" s="12"/>
+      <c r="I64" s="16"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
@@ -6248,7 +8045,7 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="4"/>
-      <c r="I65" s="12"/>
+      <c r="I65" s="16"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
@@ -6258,7 +8055,7 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="4"/>
-      <c r="I66" s="12"/>
+      <c r="I66" s="16"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
@@ -6268,7 +8065,7 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="4"/>
-      <c r="I67" s="12"/>
+      <c r="I67" s="16"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
@@ -6278,7 +8075,7 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="4"/>
-      <c r="I68" s="12"/>
+      <c r="I68" s="16"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
@@ -6288,7 +8085,7 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="12"/>
+      <c r="I69" s="16"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
@@ -6298,7 +8095,7 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="4"/>
-      <c r="I70" s="12"/>
+      <c r="I70" s="16"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
@@ -6308,7 +8105,7 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="4"/>
-      <c r="I71" s="12"/>
+      <c r="I71" s="16"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
@@ -6318,7 +8115,7 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="4"/>
-      <c r="I72" s="12"/>
+      <c r="I72" s="16"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
@@ -6328,7 +8125,7 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="4"/>
-      <c r="I73" s="12"/>
+      <c r="I73" s="16"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
@@ -6338,7 +8135,7 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="4"/>
-      <c r="I74" s="12"/>
+      <c r="I74" s="16"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
@@ -6348,7 +8145,7 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="4"/>
-      <c r="I75" s="12"/>
+      <c r="I75" s="16"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
@@ -6356,11 +8153,9 @@
       <c r="D76" s="7"/>
       <c r="E76" s="4"/>
       <c r="F76" s="7"/>
-      <c r="G76" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="G76" s="7"/>
       <c r="H76" s="4"/>
-      <c r="I76" s="12"/>
+      <c r="I76" s="16"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
@@ -6370,7 +8165,7 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="4"/>
-      <c r="I77" s="12"/>
+      <c r="I77" s="16"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
@@ -6380,7 +8175,7 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="4"/>
-      <c r="I78" s="12"/>
+      <c r="I78" s="16"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
@@ -6390,7 +8185,7 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="4"/>
-      <c r="I79" s="12"/>
+      <c r="I79" s="16"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
@@ -6400,7 +8195,7 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="4"/>
-      <c r="I80" s="12"/>
+      <c r="I80" s="16"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
@@ -6410,7 +8205,7 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="4"/>
-      <c r="I81" s="12"/>
+      <c r="I81" s="16"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="3"/>
@@ -6420,7 +8215,7 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="4"/>
-      <c r="I82" s="12"/>
+      <c r="I82" s="16"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="3"/>
@@ -6430,7 +8225,7 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="4"/>
-      <c r="I83" s="12"/>
+      <c r="I83" s="16"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
@@ -6440,7 +8235,7 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="4"/>
-      <c r="I84" s="12"/>
+      <c r="I84" s="16"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
@@ -6450,7 +8245,7 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="4"/>
-      <c r="I85" s="12"/>
+      <c r="I85" s="16"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="3"/>
@@ -6460,7 +8255,7 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="4"/>
-      <c r="I86" s="12"/>
+      <c r="I86" s="16"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="3"/>
@@ -6470,7 +8265,7 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="4"/>
-      <c r="I87" s="12"/>
+      <c r="I87" s="16"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="3"/>
@@ -6480,7 +8275,7 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="4"/>
-      <c r="I88" s="12"/>
+      <c r="I88" s="16"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="3"/>
@@ -6490,7 +8285,7 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="4"/>
-      <c r="I89" s="12"/>
+      <c r="I89" s="16"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="3"/>
@@ -6500,7 +8295,7 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="4"/>
-      <c r="I90" s="12"/>
+      <c r="I90" s="16"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="3"/>
@@ -6510,7 +8305,7 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="4"/>
-      <c r="I91" s="12"/>
+      <c r="I91" s="16"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="3"/>
@@ -6520,7 +8315,7 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="4"/>
-      <c r="I92" s="12"/>
+      <c r="I92" s="16"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="3"/>
@@ -6530,7 +8325,7 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="4"/>
-      <c r="I93" s="12"/>
+      <c r="I93" s="16"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="3"/>
@@ -6540,7 +8335,7 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="4"/>
-      <c r="I94" s="12"/>
+      <c r="I94" s="16"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="3"/>
@@ -6550,7 +8345,7 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c r="H95" s="4"/>
-      <c r="I95" s="12"/>
+      <c r="I95" s="16"/>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="3"/>
@@ -6560,7 +8355,7 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="4"/>
-      <c r="I96" s="12"/>
+      <c r="I96" s="16"/>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="3"/>
@@ -6570,7 +8365,7 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c r="H97" s="4"/>
-      <c r="I97" s="12"/>
+      <c r="I97" s="16"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="3"/>
@@ -6580,7 +8375,7 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="4"/>
-      <c r="I98" s="12"/>
+      <c r="I98" s="16"/>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="3"/>
@@ -6590,7 +8385,7 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="4"/>
-      <c r="I99" s="12"/>
+      <c r="I99" s="16"/>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="3"/>
@@ -6600,7 +8395,7 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="4"/>
-      <c r="I100" s="12"/>
+      <c r="I100" s="16"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="3"/>
@@ -6610,7 +8405,7 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c r="H101" s="4"/>
-      <c r="I101" s="12"/>
+      <c r="I101" s="16"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="3"/>
@@ -6620,7 +8415,7 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c r="H102" s="4"/>
-      <c r="I102" s="12"/>
+      <c r="I102" s="16"/>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="3"/>
@@ -6630,7 +8425,7 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c r="H103" s="4"/>
-      <c r="I103" s="12"/>
+      <c r="I103" s="16"/>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="3"/>
@@ -6638,11 +8433,9 @@
       <c r="D104" s="7"/>
       <c r="E104" s="4"/>
       <c r="F104" s="7"/>
-      <c r="G104" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="G104" s="7"/>
       <c r="H104" s="4"/>
-      <c r="I104" s="12"/>
+      <c r="I104" s="16"/>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="3"/>
@@ -6652,7 +8445,7 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c r="H105" s="4"/>
-      <c r="I105" s="12"/>
+      <c r="I105" s="16"/>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
@@ -6662,7 +8455,7 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c r="H106" s="4"/>
-      <c r="I106" s="12"/>
+      <c r="I106" s="16"/>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="3"/>
@@ -6672,7 +8465,7 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c r="H107" s="4"/>
-      <c r="I107" s="12"/>
+      <c r="I107" s="16"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="3"/>
@@ -6682,7 +8475,7 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c r="H108" s="4"/>
-      <c r="I108" s="12"/>
+      <c r="I108" s="16"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
@@ -6692,7 +8485,7 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c r="H109" s="4"/>
-      <c r="I109" s="12"/>
+      <c r="I109" s="16"/>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="3"/>
@@ -6702,7 +8495,7 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="4"/>
-      <c r="I110" s="12"/>
+      <c r="I110" s="16"/>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="3"/>
@@ -6712,7 +8505,7 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c r="H111" s="4"/>
-      <c r="I111" s="12"/>
+      <c r="I111" s="16"/>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
@@ -6722,27 +8515,611 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c r="H112" s="4"/>
-      <c r="I112" s="12"/>
-    </row>
-    <row r="113" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="5"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="13"/>
+      <c r="I112" s="16"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="3"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="16"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="3"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="16"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
+      <c r="B115" s="3"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="16"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B116" s="3"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="16"/>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="3"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="16"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="3"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="16"/>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="3"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="16"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B120" s="3"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="16"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="3"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="16"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B122" s="3"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="16"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B123" s="3"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="16"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="3"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H124" s="4"/>
+      <c r="I124" s="16"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B125" s="3"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="16"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="3"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="16"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B127" s="3"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="16"/>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B128" s="3"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="16"/>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B129" s="3"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="16"/>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B130" s="3"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="16"/>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B131" s="3"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="16"/>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B132" s="3"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="16"/>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B133" s="3"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="16"/>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B134" s="3"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="16"/>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B135" s="3"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="16"/>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B136" s="3"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="16"/>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B137" s="3"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="16"/>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B138" s="3"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="16"/>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B139" s="3"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="16"/>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B140" s="3"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="16"/>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B141" s="3"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="16"/>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B142" s="3"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="16"/>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B143" s="3"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="16"/>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B144" s="3"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="16"/>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B145" s="3"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="16"/>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B146" s="3"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="16"/>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B147" s="3"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="16"/>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B148" s="3"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="16"/>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B149" s="3"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="16"/>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B150" s="3"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="16"/>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B151" s="3"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="16"/>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B152" s="3"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="16"/>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B153" s="3"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="7"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="16"/>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B154" s="3"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="4"/>
+      <c r="I154" s="16"/>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B155" s="3"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
+      <c r="H155" s="4"/>
+      <c r="I155" s="16"/>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B156" s="3"/>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="4"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+      <c r="H156" s="4"/>
+      <c r="I156" s="16"/>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B157" s="3"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="4"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="4"/>
+      <c r="I157" s="16"/>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B158" s="3"/>
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="4"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="4"/>
+      <c r="I158" s="16"/>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B159" s="3"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="16"/>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B160" s="3"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="4"/>
+      <c r="I160" s="16"/>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B161" s="3"/>
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="4"/>
+      <c r="I161" s="16"/>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B162" s="3"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="4"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H162" s="4"/>
+      <c r="I162" s="16"/>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B163" s="3"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="4"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="4"/>
+      <c r="I163" s="16"/>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B164" s="3"/>
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="4"/>
+      <c r="I164" s="16"/>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B165" s="3"/>
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="4"/>
+      <c r="F165" s="7"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="4"/>
+      <c r="I165" s="16"/>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B166" s="3"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="16"/>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B167" s="3"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="4"/>
+      <c r="I167" s="16"/>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B168" s="3"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
+      <c r="H168" s="4"/>
+      <c r="I168" s="16"/>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B169" s="3"/>
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="4"/>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
+      <c r="H169" s="4"/>
+      <c r="I169" s="16"/>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B170" s="3"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="4"/>
+      <c r="I170" s="16"/>
+    </row>
+    <row r="171" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="5"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="6"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8"/>
+      <c r="H171" s="6"/>
+      <c r="I171" s="18"/>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="44" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="29" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>